--- a/FileInput/Controller.xlsx
+++ b/FileInput/Controller.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>LocatorValue</t>
   </si>
@@ -110,12 +110,6 @@
     <t>typeAction</t>
   </si>
   <si>
-    <t xml:space="preserve"> xpath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  //input[@id='username']</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
   </si>
   <si>
     <t>clickAction</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> btnsubmit</t>
   </si>
   <si>
     <t>Wait for logout link</t>
@@ -183,6 +174,12 @@
   </si>
   <si>
     <t>closeBrowser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> //input[@id='username']</t>
+  </si>
+  <si>
+    <t>//button[text()='Login']</t>
   </si>
 </sst>
 </file>
@@ -282,13 +279,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,7 +586,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -595,71 +595,69 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="23.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="23.4">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -671,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="A12:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -685,208 +683,209 @@
     <col min="6" max="6" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="21">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="21">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>10</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="3">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -900,23 +899,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="21">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -935,23 +934,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="21">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/FileInput/Controller.xlsx
+++ b/FileInput/Controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" tabRatio="636" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="149">
   <si>
     <t>LocatorValue</t>
   </si>
@@ -62,9 +62,6 @@
     <t>ApplicationLogin</t>
   </si>
   <si>
-    <t>StockItem</t>
-  </si>
-  <si>
     <t>Customers</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Wait for Username</t>
   </si>
   <si>
-    <t>WaitforElement</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -146,27 +140,6 @@
     <t>validateTitle</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>Dashboard « Stock Accounting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
     <t>Click logout</t>
   </si>
   <si>
@@ -180,13 +153,325 @@
   </si>
   <si>
     <t>//button[text()='Login']</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>waitforElement</t>
+  </si>
+  <si>
+    <t>Start Browser</t>
+  </si>
+  <si>
+    <t>Launch Url</t>
+  </si>
+  <si>
+    <t>Wait for username</t>
+  </si>
+  <si>
+    <t>Click Login button</t>
+  </si>
+  <si>
+    <t>Wait for logout Link</t>
+  </si>
+  <si>
+    <t>Click Logout</t>
+  </si>
+  <si>
+    <t>Decsription</t>
+  </si>
+  <si>
+    <t>Wait for Stock item</t>
+  </si>
+  <si>
+    <t>Click stock item</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>//a[starts-with(text(),'Stock Items ')]</t>
+  </si>
+  <si>
+    <t>wait for Add Icon</t>
+  </si>
+  <si>
+    <t>Click Add Icon</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Wait for Category List box</t>
+  </si>
+  <si>
+    <t>Select item in category</t>
+  </si>
+  <si>
+    <t>x_Category</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capture Stock number   </t>
+  </si>
+  <si>
+    <t>captureStock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>x_Stock_Number</t>
+  </si>
+  <si>
+    <t>Enter Stock name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select item in Unit Of Measurement </t>
+  </si>
+  <si>
+    <t>x_Unit_Of_Measurement</t>
+  </si>
+  <si>
+    <t>Purchasing Price</t>
+  </si>
+  <si>
+    <t>Enter Selling Price</t>
+  </si>
+  <si>
+    <t>selling puzzles</t>
+  </si>
+  <si>
+    <t>x_Purchasing_Price</t>
+  </si>
+  <si>
+    <t>x_Selling_Price</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>Click add  button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Verify stock Number</t>
+  </si>
+  <si>
+    <t>stockTable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard « Stock Accounting </t>
+  </si>
+  <si>
+    <t>Wait for Confirm OK button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click Confirm OK button   </t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for OK button  </t>
+  </si>
+  <si>
+    <t>(//button[starts-with(text(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NA</t>
+  </si>
+  <si>
+    <t>dropDownAction</t>
+  </si>
+  <si>
+    <t>Enter Supplier Name</t>
+  </si>
+  <si>
+    <t>Enter Address</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Click supplier link</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wait for Supplier link</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name</t>
+  </si>
+  <si>
+    <t>Capture Supplier number</t>
+  </si>
+  <si>
+    <t>captureSupplier</t>
+  </si>
+  <si>
+    <t>Enter Contact Person</t>
+  </si>
+  <si>
+    <t>Enter Phone Number</t>
+  </si>
+  <si>
+    <t>Enter  Email</t>
+  </si>
+  <si>
+    <t>Enter  Mobile Number</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>Verify Supplier Number</t>
+  </si>
+  <si>
+    <t>supplierTable</t>
+  </si>
+  <si>
+    <t>x_Supplier_Name</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Click Alert OK</t>
+  </si>
+  <si>
+    <t>Akhilesh</t>
+  </si>
+  <si>
+    <t>Ameerpeth,201,flat no101</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>QedgeTech</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>I am a new supplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for Alert OK button  </t>
+  </si>
+  <si>
+    <t>Wait for customer number</t>
+  </si>
+  <si>
+    <t>Capture customer number</t>
+  </si>
+  <si>
+    <t>Enter customer Name</t>
+  </si>
+  <si>
+    <t>Click customer link</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wait for customer link</t>
+  </si>
+  <si>
+    <t>Verify customer Number</t>
+  </si>
+  <si>
+    <t>customerTable</t>
+  </si>
+  <si>
+    <t>captureCustomer</t>
+  </si>
+  <si>
+    <t>I am a new customer</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>x_Customer_Name</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>Madanpally</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>StockItems</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Category']</t>
+  </si>
+  <si>
+    <t>Select item in Stock Number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Stock_Name']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishal </t>
+  </si>
+  <si>
+    <t>Dashboard « Stock Accounting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,14 +510,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="7"/>
       <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="7"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
       <family val="3"/>
@@ -276,21 +591,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,7 +918,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -597,17 +929,17 @@
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="23.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="23.4">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -628,10 +960,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -640,10 +972,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -652,10 +984,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -667,221 +999,254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:XFD1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" customWidth="1"/>
+    <col min="1" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="21">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" ht="21">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="27">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -891,84 +1256,1765 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="21">
+      <c r="A1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="13">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="13">
+        <v>10</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="13">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="13">
+        <v>10</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="13">
+        <v>10</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="13">
+        <v>2</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="13">
+        <v>300000</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="13">
+        <v>500000</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="15">
+        <v>10</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="15">
+        <v>10</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="21">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="21">
+      <c r="A1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="8">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="8">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.600000000000001">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="8">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="8">
+        <v>10</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>